--- a/Team-Data/2013-14/12-12-2013-14.xlsx
+++ b/Team-Data/2013-14/12-12-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -759,13 +826,13 @@
         <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL2" t="n">
         <v>11</v>
@@ -774,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="AN2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO2" t="n">
         <v>20</v>
@@ -804,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -956,7 +1023,7 @@
         <v>23</v>
       </c>
       <c r="AN3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO3" t="n">
         <v>26</v>
@@ -971,7 +1038,7 @@
         <v>22</v>
       </c>
       <c r="AS3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT3" t="n">
         <v>23</v>
@@ -998,7 +1065,7 @@
         <v>27</v>
       </c>
       <c r="BB3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC3" t="n">
         <v>17</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
         <v>14</v>
       </c>
       <c r="G4" t="n">
-        <v>0.364</v>
+        <v>0.333</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1048,85 +1115,85 @@
         <v>34.4</v>
       </c>
       <c r="J4" t="n">
-        <v>78.59999999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K4" t="n">
         <v>0.437</v>
       </c>
       <c r="L4" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M4" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="N4" t="n">
-        <v>0.341</v>
+        <v>0.338</v>
       </c>
       <c r="O4" t="n">
-        <v>20.3</v>
+        <v>19.9</v>
       </c>
       <c r="P4" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.762</v>
+        <v>0.753</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>10.7</v>
       </c>
       <c r="S4" t="n">
-        <v>30.9</v>
+        <v>30.6</v>
       </c>
       <c r="T4" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U4" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="V4" t="n">
         <v>14.5</v>
       </c>
       <c r="W4" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X4" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.5</v>
+        <v>22.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.2</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-6.4</v>
+        <v>-7.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
         <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
       </c>
       <c r="AJ4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK4" t="n">
         <v>21</v>
@@ -1138,22 +1205,22 @@
         <v>25</v>
       </c>
       <c r="AN4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP4" t="n">
         <v>6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR4" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AS4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT4" t="n">
         <v>22</v>
@@ -1162,25 +1229,25 @@
         <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW4" t="n">
         <v>27</v>
       </c>
       <c r="AX4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA4" t="n">
         <v>8</v>
       </c>
       <c r="BB4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC4" t="n">
         <v>27</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>14</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1557,7 @@
         <v>27</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
         <v>27</v>
@@ -1502,7 +1569,7 @@
         <v>28</v>
       </c>
       <c r="AN6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO6" t="n">
         <v>14</v>
@@ -1514,7 +1581,7 @@
         <v>8</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS6" t="n">
         <v>7</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
         <v>21</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2085,13 @@
         <v>2.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
         <v>8</v>
       </c>
       <c r="AF9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG9" t="n">
         <v>8</v>
@@ -2051,7 +2118,7 @@
         <v>9</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
         <v>7</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>14</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>3.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2406,7 +2473,7 @@
         <v>5</v>
       </c>
       <c r="AL11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM11" t="n">
         <v>7</v>
@@ -2448,7 +2515,7 @@
         <v>13</v>
       </c>
       <c r="AZ11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA11" t="n">
         <v>18</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -2486,85 +2553,85 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" t="n">
-        <v>0.652</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>48.7</v>
       </c>
       <c r="I12" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J12" t="n">
-        <v>79.09999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.474</v>
+        <v>0.477</v>
       </c>
       <c r="L12" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="M12" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.358</v>
+        <v>0.362</v>
       </c>
       <c r="O12" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="P12" t="n">
-        <v>32.2</v>
+        <v>32.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7</v>
+        <v>0.697</v>
       </c>
       <c r="R12" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S12" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="T12" t="n">
         <v>47.3</v>
       </c>
       <c r="U12" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="V12" t="n">
-        <v>17.8</v>
+        <v>18.3</v>
       </c>
       <c r="W12" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
         <v>6.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>25.2</v>
+        <v>25.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>107.3</v>
+        <v>107.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2576,25 +2643,25 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK12" t="n">
         <v>3</v>
       </c>
       <c r="AL12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2606,28 +2673,28 @@
         <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
       </c>
       <c r="AU12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX12" t="n">
         <v>2</v>
       </c>
       <c r="AY12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
         <v>16</v>
@@ -2639,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="BC12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>8.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2779,7 +2846,7 @@
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP13" t="n">
         <v>13</v>
@@ -2797,7 +2864,7 @@
         <v>9</v>
       </c>
       <c r="AU13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV13" t="n">
         <v>19</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -2850,46 +2917,46 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>0.625</v>
+        <v>0.652</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>37.6</v>
+        <v>38.1</v>
       </c>
       <c r="J14" t="n">
-        <v>81.5</v>
+        <v>82</v>
       </c>
       <c r="K14" t="n">
-        <v>0.461</v>
+        <v>0.464</v>
       </c>
       <c r="L14" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M14" t="n">
         <v>23.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.326</v>
+        <v>0.329</v>
       </c>
       <c r="O14" t="n">
-        <v>20.4</v>
+        <v>19.8</v>
       </c>
       <c r="P14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.703</v>
+        <v>0.705</v>
       </c>
       <c r="R14" t="n">
         <v>10.4</v>
@@ -2901,40 +2968,40 @@
         <v>42.9</v>
       </c>
       <c r="U14" t="n">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="V14" t="n">
         <v>14.5</v>
       </c>
       <c r="W14" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>103.3</v>
+        <v>103.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG14" t="n">
         <v>7</v>
@@ -2943,10 +3010,10 @@
         <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
         <v>7</v>
@@ -2958,16 +3025,16 @@
         <v>6</v>
       </c>
       <c r="AN14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP14" t="n">
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR14" t="n">
         <v>21</v>
@@ -2979,19 +3046,19 @@
         <v>15</v>
       </c>
       <c r="AU14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV14" t="n">
         <v>7</v>
       </c>
       <c r="AW14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX14" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AY14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ14" t="n">
         <v>27</v>
@@ -3000,10 +3067,10 @@
         <v>2</v>
       </c>
       <c r="BB14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
         <v>14</v>
@@ -3125,7 +3192,7 @@
         <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
         <v>5</v>
@@ -3161,7 +3228,7 @@
         <v>14</v>
       </c>
       <c r="AU15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV15" t="n">
         <v>12</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3334,7 +3401,7 @@
         <v>11</v>
       </c>
       <c r="AR16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS16" t="n">
         <v>23</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>7</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3489,7 +3556,7 @@
         <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3507,13 +3574,13 @@
         <v>6</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
         <v>10</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV17" t="n">
         <v>17</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-9.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3707,7 +3774,7 @@
         <v>28</v>
       </c>
       <c r="AU18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV18" t="n">
         <v>24</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>4.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
         <v>12</v>
@@ -3853,7 +3920,7 @@
         <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ19" t="n">
         <v>1</v>
@@ -3886,7 +3953,7 @@
         <v>15</v>
       </c>
       <c r="AT19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU19" t="n">
         <v>7</v>
@@ -3913,7 +3980,7 @@
         <v>3</v>
       </c>
       <c r="BC19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4120,7 @@
         <v>5</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP20" t="n">
         <v>12</v>
@@ -4086,13 +4153,13 @@
         <v>28</v>
       </c>
       <c r="AZ20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA20" t="n">
         <v>16</v>
       </c>
       <c r="BB20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC20" t="n">
         <v>12</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-4</v>
       </c>
       <c r="AD21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
         <v>27</v>
@@ -4244,7 +4311,7 @@
         <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
         <v>30</v>
@@ -4265,7 +4332,7 @@
         <v>12</v>
       </c>
       <c r="AY21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4414,7 +4481,7 @@
         <v>24</v>
       </c>
       <c r="AN22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO22" t="n">
         <v>2</v>
@@ -4429,7 +4496,7 @@
         <v>14</v>
       </c>
       <c r="AS22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>2</v>
@@ -4459,7 +4526,7 @@
         <v>4</v>
       </c>
       <c r="BC22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -4566,10 +4633,10 @@
         <v>-4.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF23" t="n">
         <v>26</v>
@@ -4605,7 +4672,7 @@
         <v>24</v>
       </c>
       <c r="AQ23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR23" t="n">
         <v>27</v>
@@ -4623,7 +4690,7 @@
         <v>25</v>
       </c>
       <c r="AW23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX23" t="n">
         <v>16</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>-7.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF24" t="n">
         <v>28</v>
@@ -4784,10 +4851,10 @@
         <v>23</v>
       </c>
       <c r="AP24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR24" t="n">
         <v>10</v>
@@ -4802,7 +4869,7 @@
         <v>10</v>
       </c>
       <c r="AV24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW24" t="n">
         <v>9</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -4930,13 +4997,13 @@
         <v>1.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
       </c>
       <c r="AF25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG25" t="n">
         <v>9</v>
@@ -4945,10 +5012,10 @@
         <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK25" t="n">
         <v>6</v>
@@ -4966,7 +5033,7 @@
         <v>17</v>
       </c>
       <c r="AP25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ25" t="n">
         <v>18</v>
@@ -4987,7 +5054,7 @@
         <v>20</v>
       </c>
       <c r="AW25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX25" t="n">
         <v>13</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" t="n">
         <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>0.826</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="H26" t="n">
         <v>48.2</v>
@@ -5052,70 +5119,70 @@
         <v>39.2</v>
       </c>
       <c r="J26" t="n">
-        <v>85.7</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L26" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="M26" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.409</v>
+        <v>0.415</v>
       </c>
       <c r="O26" t="n">
-        <v>18.5</v>
+        <v>18.2</v>
       </c>
       <c r="P26" t="n">
-        <v>22.7</v>
+        <v>22.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="R26" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S26" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="T26" t="n">
-        <v>45.5</v>
+        <v>45.2</v>
       </c>
       <c r="U26" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V26" t="n">
         <v>14.3</v>
       </c>
       <c r="W26" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="X26" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>106.4</v>
+        <v>106.2</v>
       </c>
       <c r="AC26" t="n">
         <v>6.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF26" t="n">
         <v>2</v>
@@ -5124,7 +5191,7 @@
         <v>2</v>
       </c>
       <c r="AH26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="n">
         <v>4</v>
@@ -5133,7 +5200,7 @@
         <v>4</v>
       </c>
       <c r="AK26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL26" t="n">
         <v>4</v>
@@ -5145,22 +5212,22 @@
         <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AP26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS26" t="n">
         <v>10</v>
       </c>
       <c r="AT26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU26" t="n">
         <v>8</v>
@@ -5172,10 +5239,10 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AY26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
         <v>3</v>
@@ -5187,7 +5254,7 @@
         <v>2</v>
       </c>
       <c r="BC26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -5336,7 +5403,7 @@
         <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS27" t="n">
         <v>20</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>10</v>
       </c>
       <c r="AD28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5536,10 +5603,10 @@
         <v>13</v>
       </c>
       <c r="AX28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -5661,13 +5728,13 @@
         <v>26</v>
       </c>
       <c r="AE29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF29" t="n">
         <v>20</v>
       </c>
       <c r="AG29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH29" t="n">
         <v>5</v>
@@ -5718,7 +5785,7 @@
         <v>24</v>
       </c>
       <c r="AX29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY29" t="n">
         <v>18</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -5870,13 +5937,13 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO30" t="n">
         <v>18</v>
       </c>
       <c r="AP30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ30" t="n">
         <v>21</v>
@@ -5906,7 +5973,7 @@
         <v>17</v>
       </c>
       <c r="AZ30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA30" t="n">
         <v>9</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
@@ -6064,7 +6131,7 @@
         <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS31" t="n">
         <v>17</v>
@@ -6085,7 +6152,7 @@
         <v>14</v>
       </c>
       <c r="AY31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ31" t="n">
         <v>5</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-12-2013-14</t>
+          <t>2013-12-12</t>
         </is>
       </c>
     </row>
